--- a/Data Viz/Session Trace Visualisation/threshold_spreadsheet.xlsx
+++ b/Data Viz/Session Trace Visualisation/threshold_spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eis2win-my.sharepoint.com/personal/alex_anastasiou_eis2win_co_uk/Documents/Documents/11_Data/Python/03_Github/alexanastasiou.me/Data Viz/Session Trace Visualisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{66122CF1-4C7C-4CFD-8139-B6E2BBCE58D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80E366FF-01CB-4A34-A968-C1E145EAC9E8}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{66122CF1-4C7C-4CFD-8139-B6E2BBCE58D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E318C31F-670F-4AF2-A3D3-CBC276B0CBAC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{D443A7A9-4E0B-4F67-AB78-8BB06A8B40C9}"/>
   </bookViews>
@@ -405,7 +405,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B11D4DF-7C1F-4ABE-8748-6503BFB52EB8}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -422,7 +424,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -431,12 +433,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1">
-        <v>160</v>
-      </c>
-      <c r="D2">
+        <v>163</v>
+      </c>
+      <c r="D2" s="1">
         <v>150</v>
       </c>
     </row>
@@ -445,12 +447,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C3" s="1">
         <v>180</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>175</v>
       </c>
     </row>
